--- a/ModelTraining/Models/KNN/RadiusRegressorBenchmark.xlsx
+++ b/ModelTraining/Models/KNN/RadiusRegressorBenchmark.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.60271208571636</v>
+        <v>12.2218579614066</v>
       </c>
       <c r="F2" t="n">
-        <v>2.277469166326181</v>
+        <v>1.881011407927113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3342082276437415</v>
+        <v>0.002583783132887318</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8.917394698403969</v>
+        <v>12.28454731732566</v>
       </c>
       <c r="F3" t="n">
-        <v>1.827926498306144</v>
+        <v>1.831409206878172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4882982549950846</v>
+        <v>-0.002532245904274699</v>
       </c>
     </row>
     <row r="4">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7.615786731356675</v>
+        <v>12.30414225166378</v>
       </c>
       <c r="F4" t="n">
-        <v>1.53238585138166</v>
+        <v>1.761698548583134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5629876783722518</v>
+        <v>-0.004131373086001311</v>
       </c>
     </row>
     <row r="5">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.636572119928413</v>
+        <v>12.41600002994138</v>
       </c>
       <c r="F5" t="n">
-        <v>1.460679573956549</v>
+        <v>1.743177915011001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5617949623422361</v>
+        <v>-0.01325999840541781</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.08196429398123</v>
+        <v>11.93222199747857</v>
       </c>
       <c r="F6" t="n">
-        <v>2.679271994393334</v>
+        <v>1.914494212867257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.249325146668646</v>
+        <v>0.02622074637710015</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.64343441080069</v>
+        <v>12.20646435874626</v>
       </c>
       <c r="F7" t="n">
-        <v>2.259337634599426</v>
+        <v>1.836603404368611</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3318714818215522</v>
+        <v>0.003840042940350008</v>
       </c>
     </row>
     <row r="8">
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.997311934523677</v>
+        <v>11.89655116997449</v>
       </c>
       <c r="F8" t="n">
-        <v>1.750712233663035</v>
+        <v>1.768092597376504</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5410948364798938</v>
+        <v>0.02913181455789426</v>
       </c>
     </row>
     <row r="9">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.660986407037408</v>
+        <v>12.31234066573045</v>
       </c>
       <c r="F9" t="n">
-        <v>1.504065357522795</v>
+        <v>1.736308884669101</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5603940113089754</v>
+        <v>-0.004800439210686402</v>
       </c>
     </row>
     <row r="10">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14.22634425568376</v>
+        <v>11.80416136678433</v>
       </c>
       <c r="F10" t="n">
-        <v>2.948520447759109</v>
+        <v>1.949901181618349</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1836578477369696</v>
+        <v>0.03667167374018976</v>
       </c>
     </row>
     <row r="11">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.33849652797058</v>
+        <v>12.13819087238466</v>
       </c>
       <c r="F11" t="n">
-        <v>2.369251394607176</v>
+        <v>1.839736334788845</v>
       </c>
       <c r="G11" t="n">
-        <v>0.291987131036193</v>
+        <v>0.009411788471524463</v>
       </c>
     </row>
     <row r="12">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.565382570652796</v>
+        <v>11.67651281041032</v>
       </c>
       <c r="F12" t="n">
-        <v>1.942511663991428</v>
+        <v>1.766757441934289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5084975650094106</v>
+        <v>0.04708897204206464</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.574057809780151</v>
+        <v>12.22302506305061</v>
       </c>
       <c r="F13" t="n">
-        <v>1.531957954579819</v>
+        <v>1.736163274384311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5653821851435741</v>
+        <v>0.002488536885536852</v>
       </c>
     </row>
     <row r="14">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.0047242031455</v>
+        <v>11.82060991876815</v>
       </c>
       <c r="F14" t="n">
-        <v>3.110316492197581</v>
+        <v>1.988257407590117</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1389925176866694</v>
+        <v>0.03532932034805802</v>
       </c>
     </row>
     <row r="15">
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.42296827109455</v>
+        <v>12.05397234475991</v>
       </c>
       <c r="F15" t="n">
-        <v>2.412677376569128</v>
+        <v>1.851495197540349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2871399374530854</v>
+        <v>0.01628479628088075</v>
       </c>
     </row>
     <row r="16">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.039562168048748</v>
+        <v>11.65214072299821</v>
       </c>
       <c r="F16" t="n">
-        <v>2.068633654403808</v>
+        <v>1.777467942317213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.481287989159116</v>
+        <v>0.04907795892936972</v>
       </c>
     </row>
     <row r="17">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.515117488641818</v>
+        <v>12.13036601629508</v>
       </c>
       <c r="F17" t="n">
-        <v>1.553225534529547</v>
+        <v>1.737891569528418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5687643237835776</v>
+        <v>0.01005036882346722</v>
       </c>
     </row>
     <row r="18">
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>15.47299921851135</v>
+        <v>11.84795243134278</v>
       </c>
       <c r="F18" t="n">
-        <v>3.213793456088155</v>
+        <v>2.023685607936933</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1121217610801695</v>
+        <v>0.03309791939920492</v>
       </c>
     </row>
     <row r="19">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12.54531259048789</v>
+        <v>12.07687309199294</v>
       </c>
       <c r="F19" t="n">
-        <v>2.479243741736926</v>
+        <v>1.872127933119406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2801195235494353</v>
+        <v>0.01441588430851781</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.29912317911972</v>
+        <v>11.63438580506858</v>
       </c>
       <c r="F20" t="n">
-        <v>2.147239449143946</v>
+        <v>1.78630491018048</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4663937485437457</v>
+        <v>0.05052692381900215</v>
       </c>
     </row>
     <row r="21">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.513232613614727</v>
+        <v>12.11002629600846</v>
       </c>
       <c r="F21" t="n">
-        <v>1.580485475828412</v>
+        <v>1.744151226340409</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5688724824861021</v>
+        <v>0.01171027740074582</v>
       </c>
     </row>
     <row r="22">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.28821569470908</v>
+        <v>11.81242656139587</v>
       </c>
       <c r="F22" t="n">
-        <v>3.413291562356797</v>
+        <v>2.088131162121978</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0653426616306636</v>
+        <v>0.0359971577077548</v>
       </c>
     </row>
     <row r="23">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.71904214134019</v>
+        <v>11.85753090958821</v>
       </c>
       <c r="F23" t="n">
-        <v>2.850573440849865</v>
+        <v>1.901330666879689</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2127680739783571</v>
+        <v>0.03231622732218487</v>
       </c>
     </row>
     <row r="24">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.733523195573408</v>
+        <v>11.50023580248815</v>
       </c>
       <c r="F24" t="n">
-        <v>2.302761326545617</v>
+        <v>1.796483169091391</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4414668215692898</v>
+        <v>0.06147480003299566</v>
       </c>
     </row>
     <row r="25">
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.828272618372034</v>
+        <v>11.77939493382674</v>
       </c>
       <c r="F25" t="n">
-        <v>1.782221923586725</v>
+        <v>1.74175774948887</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5507947225985059</v>
+        <v>0.03869284285734509</v>
       </c>
     </row>
     <row r="26">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.8904864978637</v>
+        <v>11.8513352001668</v>
       </c>
       <c r="F26" t="n">
-        <v>3.539041262487434</v>
+        <v>2.139547219813363</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03078290159280295</v>
+        <v>0.03282185429571283</v>
       </c>
     </row>
     <row r="27">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15.55308090857193</v>
+        <v>11.79501981542471</v>
       </c>
       <c r="F27" t="n">
-        <v>3.258462908769449</v>
+        <v>1.970909414250721</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1075264793938854</v>
+        <v>0.0374177085576618</v>
       </c>
     </row>
     <row r="28">
@@ -1185,13 +1185,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.10678265633613</v>
+        <v>11.47984161382105</v>
       </c>
       <c r="F28" t="n">
-        <v>2.404848504188769</v>
+        <v>1.809822873941755</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4200482880321272</v>
+        <v>0.06313915373197054</v>
       </c>
     </row>
     <row r="29">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.697609373899786</v>
+        <v>11.58564518082139</v>
       </c>
       <c r="F29" t="n">
-        <v>2.052607695878463</v>
+        <v>1.741694650585852</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5009100702033304</v>
+        <v>0.05450460783381283</v>
       </c>
     </row>
   </sheetData>
